--- a/data/trans_dic/P2C_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1370561154419775</v>
+        <v>0.1370561154419776</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
       <c r="L5" s="5" t="inlineStr"/>
       <c r="M5" s="5" t="inlineStr"/>
       <c r="N5" s="5" t="n">
-        <v>0.01869308296739702</v>
+        <v>0.01863352446229541</v>
       </c>
     </row>
     <row r="6">
@@ -737,19 +737,19 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.4126249450980029</v>
+        <v>0.3859259775924389</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.1553039055762651</v>
+        <v>0.1856416059763056</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.2187695180340353</v>
+        <v>0.2107047159535823</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.003899102723796711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05785302066048668</v>
+        <v>0.05785302066048667</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.00539003387290274</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002911159405829901</v>
+        <v>0.002909491901182744</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001421849938941063</v>
+        <v>0.001696687348875266</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003649860938668554</v>
+        <v>0.002582827055082595</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -850,38 +850,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03371212818329286</v>
+        <v>0.03320516933744341</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02400514540142788</v>
+        <v>0.02386316699644094</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0215324149299206</v>
+        <v>0.02732241819655823</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2502605622937199</v>
+        <v>0.2561694970236018</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01925785169179784</v>
+        <v>0.01941299126218887</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02531384335467393</v>
+        <v>0.02944899717551235</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.05368187240731497</v>
+        <v>0.06947050961441292</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01585661889295091</v>
+        <v>0.01851774039896047</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02147612758570705</v>
+        <v>0.01995885667250178</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.008198360085916526</v>
+        <v>0.008217206622855</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1017096348611692</v>
+        <v>0.1093804977973825</v>
       </c>
     </row>
     <row r="10">
@@ -940,40 +940,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003314453218842515</v>
+        <v>0.003299813240274106</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005085112311811189</v>
+        <v>0.004984655994046005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002276815961843218</v>
+        <v>0.003477675546202821</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007366173721041308</v>
+        <v>0.007298727764773252</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006039632578718245</v>
+        <v>0.004837785591330754</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.007190482276238392</v>
+        <v>0.008667391166262656</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007228654211556631</v>
+        <v>0.00655004484188731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007214733999236416</v>
+        <v>0.007243424624763471</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007199574706433175</v>
+        <v>0.007624495001644629</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.00356285884237312</v>
+        <v>0.003667289850572674</v>
       </c>
     </row>
     <row r="12">
@@ -984,40 +984,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02731305523741841</v>
+        <v>0.02687686004432304</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03334909816098579</v>
+        <v>0.03022166247632032</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02478578150277703</v>
+        <v>0.02401052323682915</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05333577714579466</v>
+        <v>0.04831669313934456</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02901124118968534</v>
+        <v>0.02955129121801553</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02642253945889323</v>
+        <v>0.02802998966889124</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03094273685432351</v>
+        <v>0.0319834807322295</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03107088256052733</v>
+        <v>0.03512836071446241</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02234359323550052</v>
+        <v>0.02112308756540651</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02270948567342581</v>
+        <v>0.02280520089828592</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02252961735364036</v>
+        <v>0.02295817977163531</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02942886521932645</v>
+        <v>0.0303349572816067</v>
       </c>
     </row>
     <row r="13">
@@ -1041,7 +1041,7 @@
         <v>0.02175349908586063</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09068905821021353</v>
+        <v>0.09068905821021354</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01148807679085506</v>
@@ -1053,7 +1053,7 @@
         <v>0.01351553972163072</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.0760355582491076</v>
+        <v>0.07603555824910758</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.006878848466817664</v>
@@ -1065,7 +1065,7 @@
         <v>0.01778589249625998</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08308805390604428</v>
+        <v>0.08308805390604429</v>
       </c>
     </row>
     <row r="14">
@@ -1079,37 +1079,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002572525016774659</v>
+        <v>0.0008936291892191881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00942911851196716</v>
+        <v>0.009328911928686645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04191868470001385</v>
+        <v>0.04499357711611588</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.003503103019134389</v>
+        <v>0.00351400942107733</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003420865780737084</v>
+        <v>0.003428275834664709</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04308850295861327</v>
+        <v>0.04089135455862222</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001714399528005146</v>
+        <v>0.001706382097008756</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.004577032078545712</v>
+        <v>0.004595902193991164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008195473306622545</v>
+        <v>0.009780463606462505</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05404723683966508</v>
+        <v>0.05453787551628062</v>
       </c>
     </row>
     <row r="15">
@@ -1120,40 +1120,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01678891375378218</v>
+        <v>0.01537562426894629</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02586105337382551</v>
+        <v>0.02297672977496327</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04284672494009034</v>
+        <v>0.04093518302436799</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1614087518871354</v>
+        <v>0.1717753988221344</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.039070668954322</v>
+        <v>0.03996816715550919</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0325537530126128</v>
+        <v>0.03499047046211563</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03460804769768454</v>
+        <v>0.0367759200483071</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1185777205288057</v>
+        <v>0.115340969384512</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02207497106332577</v>
+        <v>0.02003535707033854</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02044108814210648</v>
+        <v>0.02151650036929862</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03044960026636572</v>
+        <v>0.03245974863818849</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1254862946478956</v>
+        <v>0.125047061328105</v>
       </c>
     </row>
     <row r="16">
@@ -1177,7 +1177,7 @@
         <v>0.01668444157407069</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1728088293153077</v>
+        <v>0.1728088293153076</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.006128650091376178</v>
@@ -1217,31 +1217,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09698788939463528</v>
+        <v>0.0989179344543636</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.013196592378574</v>
+        <v>0.009351098929330223</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04932839034007901</v>
+        <v>0.05040677720400473</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.008185000937379892</v>
+        <v>0.006939597514614259</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002904559023134383</v>
+        <v>0.00288659337963936</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09084556537948928</v>
+        <v>0.08632890466393263</v>
       </c>
     </row>
     <row r="18">
@@ -1254,34 +1254,34 @@
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.0564882811359534</v>
+        <v>0.05955705728293202</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2727879391678567</v>
+        <v>0.2860750577915157</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02481135293620745</v>
+        <v>0.03061382706345542</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06184075229056047</v>
+        <v>0.05837827212161096</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03142640452888783</v>
+        <v>0.03104070343234752</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.156694613788422</v>
+        <v>0.1579221494730002</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02140382390606283</v>
+        <v>0.02585391233147053</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0396347602659017</v>
+        <v>0.03816077819362185</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02710088102800375</v>
+        <v>0.0298571007798457</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1876102943930479</v>
+        <v>0.1886091231274988</v>
       </c>
     </row>
     <row r="19">
@@ -1317,7 +1317,7 @@
         <v>0.01205636229596951</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2394829098914056</v>
+        <v>0.2394829098914057</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.004966043582600453</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1369113506618042</v>
+        <v>0.1418581082837811</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1358,22 +1358,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003092968996227482</v>
+        <v>0.003109475089307301</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1702493096629172</v>
+        <v>0.1696977100225378</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.001631699897816412</v>
+        <v>0.001639887156440253</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.001485419911495009</v>
+        <v>0.001477854588305635</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.003067312001780881</v>
+        <v>0.003040831719694071</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1787353067771277</v>
+        <v>0.1822992899463418</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02257260166204423</v>
+        <v>0.02475333302222327</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02420431913888792</v>
+        <v>0.02091691279804461</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01996076711166403</v>
+        <v>0.01826578287643891</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3348722441483023</v>
+        <v>0.3389039308527685</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.01840345479775394</v>
+        <v>0.02062646366009572</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.01408092081851314</v>
+        <v>0.01398747720655538</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02783031439210108</v>
+        <v>0.030084498799616</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.316150920408898</v>
+        <v>0.316328276861388</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01318655406496064</v>
+        <v>0.01331517060741241</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01359553196091064</v>
+        <v>0.01354399905273498</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01857763502988945</v>
+        <v>0.0177177046394597</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2930370063024759</v>
+        <v>0.301729892185033</v>
       </c>
     </row>
     <row r="22">
@@ -1441,7 +1441,7 @@
         <v>0.006454998965914674</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4595713092053288</v>
+        <v>0.4595713092053289</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.00337551997794745</v>
@@ -1453,7 +1453,7 @@
         <v>0.009882598770029307</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.4633248668965875</v>
+        <v>0.4633248668965876</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.003583190654175691</v>
@@ -1465,7 +1465,7 @@
         <v>0.008563758696367102</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4621540286874459</v>
+        <v>0.462154028687446</v>
       </c>
     </row>
     <row r="23">
@@ -1485,31 +1485,31 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3676281009479753</v>
+        <v>0.3775810506146496</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.005485652847039369</v>
+        <v>0.005418725734889557</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.003219869620754733</v>
+        <v>0.003209545511205585</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4143287095208635</v>
+        <v>0.4049755420758612</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.003512360670275702</v>
+        <v>0.004824072769477001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0025260513464606</v>
+        <v>0.00249029277026753</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4201086616083803</v>
+        <v>0.4167864867965033</v>
       </c>
     </row>
     <row r="24">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01990073180760214</v>
+        <v>0.02016173609432232</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02717528051459413</v>
+        <v>0.02420539512089968</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02258030325584262</v>
+        <v>0.02250237192643347</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5389948060151623</v>
+        <v>0.5428461140454083</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01683523701882608</v>
+        <v>0.01704698399505321</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03159602210754216</v>
+        <v>0.02917099730451039</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02882537739260944</v>
+        <v>0.03001050935732419</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5119557275104399</v>
+        <v>0.51045526926937</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01276048287358797</v>
+        <v>0.0115354442888845</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02051166170383259</v>
+        <v>0.02073329379143371</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01811116835940089</v>
+        <v>0.01955790377841418</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5049401814690362</v>
+        <v>0.505978735377931</v>
       </c>
     </row>
     <row r="25">
@@ -1601,7 +1601,7 @@
         <v>0.009489081278261291</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1602322958500629</v>
+        <v>0.1602322958500628</v>
       </c>
     </row>
     <row r="26">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.002705986570047548</v>
+        <v>0.002882295472978949</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004505239760208592</v>
+        <v>0.004415000304714328</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.005405364468657178</v>
+        <v>0.00575321301657449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.122620093383172</v>
+        <v>0.1200841395602265</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.004310028726951489</v>
+        <v>0.004449152878521468</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.007847054920639789</v>
+        <v>0.007644978330669619</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.006008423819901002</v>
+        <v>0.006019305364634413</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1465834285035847</v>
+        <v>0.1469421461275396</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.004556869694593435</v>
+        <v>0.004607525325048698</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.00686581683101294</v>
+        <v>0.006961567379129131</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.006941344259526736</v>
+        <v>0.006890829571809961</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1435625940946736</v>
+        <v>0.1434546527711997</v>
       </c>
     </row>
     <row r="27">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01049363282593224</v>
+        <v>0.01096341272816494</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01315199217844607</v>
+        <v>0.01333917488657215</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01461833447142761</v>
+        <v>0.01498350892035928</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1837095142697129</v>
+        <v>0.1824120451775419</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01256009788601419</v>
+        <v>0.01275948252097032</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0170221942576053</v>
+        <v>0.01675089250980118</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01482713500032567</v>
+        <v>0.01470027436950417</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1867976052128873</v>
+        <v>0.1874661648998225</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01008152575337148</v>
+        <v>0.01009423674736567</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01327400847965503</v>
+        <v>0.01314953955671335</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0131159812803208</v>
+        <v>0.01308625515934571</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1782839354945552</v>
+        <v>0.1801460764318168</v>
       </c>
     </row>
     <row r="28">
@@ -1978,7 +1978,7 @@
       <c r="L6" s="6" t="inlineStr"/>
       <c r="M6" s="6" t="inlineStr"/>
       <c r="N6" s="6" t="n">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="7">
@@ -1992,19 +1992,19 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>13123</v>
+        <v>12274</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>6854</v>
+        <v>8193</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>16612</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="8">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1017</v>
+        <v>1213</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2720</v>
+        <v>1925</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
@@ -2149,38 +2149,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10365</v>
+        <v>10209</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7694</v>
+        <v>7649</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5613</v>
+        <v>7123</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16764</v>
+        <v>17160</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7852</v>
+        <v>7915</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10753</v>
+        <v>12510</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>5990</v>
+        <v>7752</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11341</v>
+        <v>13244</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>16007</v>
+        <v>14876</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>5076</v>
+        <v>5087</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>18162</v>
+        <v>19532</v>
       </c>
     </row>
     <row r="12">
@@ -2283,40 +2283,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2896</v>
+        <v>2839</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1057</v>
+        <v>1615</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4342</v>
+        <v>4303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3683</v>
+        <v>2950</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3892</v>
+        <v>4691</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7950</v>
+        <v>7204</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8508</v>
+        <v>8542</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7240</v>
+        <v>7667</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1050</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="15">
@@ -2327,40 +2327,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13939</v>
+        <v>13716</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18994</v>
+        <v>17213</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11510</v>
+        <v>11150</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7371</v>
+        <v>6677</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17102</v>
+        <v>17420</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16112</v>
+        <v>17092</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16746</v>
+        <v>17310</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4861</v>
+        <v>5496</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24574</v>
+        <v>23232</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26782</v>
+        <v>26895</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22655</v>
+        <v>23086</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>8671</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="16">
@@ -2466,37 +2466,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>965</v>
+        <v>335</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3206</v>
+        <v>3171</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4956</v>
+        <v>5320</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5491</v>
+        <v>5211</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3126</v>
+        <v>3138</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5375</v>
+        <v>6414</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13278</v>
+        <v>13398</v>
       </c>
     </row>
     <row r="19">
@@ -2507,40 +2507,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4869</v>
+        <v>4460</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9702</v>
+        <v>8620</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14566</v>
+        <v>13916</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19085</v>
+        <v>20310</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9300</v>
+        <v>9514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10017</v>
+        <v>10767</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>10931</v>
+        <v>11616</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15111</v>
+        <v>14698</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11657</v>
+        <v>10580</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>13959</v>
+        <v>14693</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19969</v>
+        <v>21288</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>30828</v>
+        <v>30721</v>
       </c>
     </row>
     <row r="20">
@@ -2648,31 +2648,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6682</v>
+        <v>6815</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2931</v>
+        <v>2077</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3849</v>
+        <v>3933</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2978</v>
+        <v>2525</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>13348</v>
+        <v>12684</v>
       </c>
     </row>
     <row r="23">
@@ -2685,34 +2685,34 @@
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>7357</v>
+        <v>7756</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18795</v>
+        <v>19710</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4972</v>
+        <v>6134</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>13736</v>
+        <v>12967</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6429</v>
+        <v>6350</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>12227</v>
+        <v>12323</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6603</v>
+        <v>7975</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>14422</v>
+        <v>13886</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>9074</v>
+        <v>9997</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>27566</v>
+        <v>27712</v>
       </c>
     </row>
     <row r="24">
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6334</v>
+        <v>6563</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2833,22 +2833,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>12353</v>
+        <v>12313</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1984</v>
+        <v>1967</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>21238</v>
+        <v>21661</v>
       </c>
     </row>
     <row r="27">
@@ -2859,40 +2859,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6604</v>
+        <v>7242</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7406</v>
+        <v>6400</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6001</v>
+        <v>5491</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15492</v>
+        <v>15678</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6295</v>
+        <v>7055</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4927</v>
+        <v>4894</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9635</v>
+        <v>10415</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>22940</v>
+        <v>22953</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8368</v>
+        <v>8450</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>8917</v>
+        <v>8883</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>12017</v>
+        <v>11460</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>34820</v>
+        <v>35852</v>
       </c>
     </row>
     <row r="28">
@@ -3004,31 +3004,31 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>33247</v>
+        <v>34147</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2116</v>
+        <v>2090</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>82654</v>
+        <v>80789</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2225</v>
+        <v>3056</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1617</v>
+        <v>1594</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>121800</v>
+        <v>120837</v>
       </c>
     </row>
     <row r="31">
@@ -3039,40 +3039,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4177</v>
+        <v>4232</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6735</v>
+        <v>5999</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5562</v>
+        <v>5542</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>48745</v>
+        <v>49093</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>5621</v>
+        <v>5692</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>12188</v>
+        <v>11252</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>11352</v>
+        <v>11819</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>102130</v>
+        <v>101831</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>6939</v>
+        <v>6273</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>12996</v>
+        <v>13136</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>11594</v>
+        <v>12520</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>146395</v>
+        <v>146696</v>
       </c>
     </row>
     <row r="32">
@@ -3175,40 +3175,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5169</v>
+        <v>5506</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9629</v>
+        <v>9436</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>10254</v>
+        <v>10913</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>68768</v>
+        <v>67346</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>9919</v>
+        <v>10239</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>19750</v>
+        <v>19241</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>14030</v>
+        <v>14055</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>115755</v>
+        <v>116038</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>19192</v>
+        <v>19405</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>31955</v>
+        <v>32400</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>29375</v>
+        <v>29162</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>193883</v>
+        <v>193737</v>
       </c>
     </row>
     <row r="35">
@@ -3219,40 +3219,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>20045</v>
+        <v>20943</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>28110</v>
+        <v>28510</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>27730</v>
+        <v>28423</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>103029</v>
+        <v>102301</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>28905</v>
+        <v>29364</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>42842</v>
+        <v>42159</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>34622</v>
+        <v>34325</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>147512</v>
+        <v>148040</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>42459</v>
+        <v>42513</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>61779</v>
+        <v>61200</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>55506</v>
+        <v>55380</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>240774</v>
+        <v>243289</v>
       </c>
     </row>
     <row r="36">
